--- a/data/clean/tableau/rel_diff_single_value.xlsx
+++ b/data/clean/tableau/rel_diff_single_value.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurits/Documents/Ironhack/week_08/final_project/data/clean/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03B102F-2065-DA4E-8FB5-D005E1A09864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACFD33-D108-5645-8AC9-7E2594B7B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{532C6E33-AE03-B444-AD82-D1BB164BF026}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="24980" windowHeight="28300" xr2:uid="{532C6E33-AE03-B444-AD82-D1BB164BF026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181C374-D67D-F146-A55F-E60706E9D2CA}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +419,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>0.26829268292682928</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -430,7 +430,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>0.23809523809523814</v>
+        <v>6.1224489795918435E-2</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -441,7 +441,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>0.20930232558139528</v>
+        <v>6.1224489795918435E-2</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -452,7 +452,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>0.23255813953488369</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -463,7 +463,7 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>-1.3333333333333308E-2</v>
+        <v>-0.18681318681318682</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -474,7 +474,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>-2.6315789473684181E-2</v>
+        <v>-0.20430107526881724</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -485,7 +485,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>-1.2987012987012991E-2</v>
+        <v>-0.19148936170212771</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -496,7 +496,7 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>-1.2820512820512775E-2</v>
+        <v>-0.18085106382978722</v>
       </c>
       <c r="C9">
         <v>31</v>
@@ -507,7 +507,7 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>-2.5000000000000022E-2</v>
+        <v>-0.15827338129496404</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -518,7 +518,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>-2.4793388429752095E-2</v>
+        <v>-0.16312056737588654</v>
       </c>
       <c r="C11">
         <v>56</v>
@@ -529,7 +529,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>7.3529411764705621E-3</v>
+        <v>-0.13836477987421381</v>
       </c>
       <c r="C12">
         <v>32</v>
@@ -540,7 +540,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>-6.8493150684931781E-3</v>
+        <v>-0.1470588235294118</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -551,7 +551,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>6.7114093959732557E-3</v>
+        <v>-0.13793103448275867</v>
       </c>
       <c r="C14">
         <v>91</v>
@@ -562,7 +562,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>-6.5359477124182774E-3</v>
+        <v>-0.13142857142857145</v>
       </c>
       <c r="C15">
         <v>41</v>
@@ -573,7 +573,7 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>2.6315789473684292E-2</v>
+        <v>-9.3023255813953543E-2</v>
       </c>
       <c r="C16">
         <v>94</v>
@@ -584,7 +584,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>4.0540540540540571E-2</v>
+        <v>-6.6666666666666652E-2</v>
       </c>
       <c r="C17">
         <v>105</v>
@@ -595,7 +595,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>6.4285714285714279E-2</v>
+        <v>-5.6962025316455667E-2</v>
       </c>
       <c r="C18">
         <v>133</v>
@@ -606,7 +606,7 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>5.1851851851851816E-2</v>
+        <v>-2.7397260273972601E-2</v>
       </c>
       <c r="C19">
         <v>86</v>
@@ -617,7 +617,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>2.2900763358778553E-2</v>
+        <v>-4.9645390070921946E-2</v>
       </c>
       <c r="C20">
         <v>123</v>
@@ -628,7 +628,7 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-5.7553956834532349E-2</v>
       </c>
       <c r="C21">
         <v>118</v>
@@ -639,7 +639,7 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>-4.3165467625899234E-2</v>
+        <v>-5.673758865248224E-2</v>
       </c>
       <c r="C22">
         <v>128</v>
@@ -650,7 +650,7 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>-3.4965034965035002E-2</v>
+        <v>-7.3825503355704702E-2</v>
       </c>
       <c r="C23">
         <v>98</v>
@@ -661,7 +661,7 @@
         <v>2019</v>
       </c>
       <c r="B24">
-        <v>-8.333333333333337E-2</v>
+        <v>-0.11180124223602483</v>
       </c>
       <c r="C24">
         <v>92</v>
@@ -672,10 +672,51 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>-7.1856287425149712E-2</v>
+        <v>-9.3567251461988299E-2</v>
       </c>
       <c r="C25">
         <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>-9.4972067039106101E-2</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2022</v>
+      </c>
+      <c r="B27">
+        <v>-9.5959595959595911E-2</v>
+      </c>
+      <c r="C27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28">
+        <v>-9.3617021276595769E-2</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>-9.3877551020408179E-2</v>
       </c>
     </row>
   </sheetData>
